--- a/database/industries/lastic/parta/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/parta/balancesheet/quarterly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E947909-A725-4C31-8CD1-DD1504D3CFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46205E7-4394-4943-B69C-B24FD908F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پارتا-مجتمع صنعتی آرتاویل تایر</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-04-29</t>
-  </si>
-  <si>
-    <t>1399-09-29 (2)</t>
-  </si>
-  <si>
-    <t>1399-10-30</t>
-  </si>
-  <si>
-    <t>1401-04-18 (13)</t>
-  </si>
-  <si>
-    <t>1400-04-29</t>
-  </si>
-  <si>
-    <t>1400-10-01 (3)</t>
-  </si>
-  <si>
     <t>1401-03-09 (3)</t>
   </si>
   <si>
-    <t>1401-07-30 (4)</t>
+    <t>1401-10-30 (6)</t>
   </si>
   <si>
     <t>1401-04-31</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-15 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-30</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -728,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M59"/>
+  <dimension ref="B1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,14 +706,12 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -751,13 +719,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,13 +730,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -783,13 +741,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -797,13 +750,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -813,13 +761,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -829,13 +772,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -843,13 +781,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -869,59 +802,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -929,15 +832,10 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -945,195 +843,115 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>1950689</v>
+        <v>1124785</v>
       </c>
       <c r="E12" s="15">
-        <v>225791</v>
+        <v>1392505</v>
       </c>
       <c r="F12" s="15">
-        <v>638587</v>
+        <v>751391</v>
       </c>
       <c r="G12" s="15">
-        <v>521880</v>
+        <v>900871</v>
       </c>
       <c r="H12" s="15">
-        <v>425529</v>
-      </c>
-      <c r="I12" s="15">
-        <v>430074</v>
-      </c>
-      <c r="J12" s="15">
-        <v>1124785</v>
-      </c>
-      <c r="K12" s="15">
-        <v>1392505</v>
-      </c>
-      <c r="L12" s="15">
-        <v>751391</v>
-      </c>
-      <c r="M12" s="15">
-        <v>895433</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>939274</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>70500</v>
+        <v>462205</v>
       </c>
       <c r="E13" s="11">
-        <v>561500</v>
+        <v>382878</v>
       </c>
       <c r="F13" s="11">
-        <v>695000</v>
+        <v>382878</v>
       </c>
       <c r="G13" s="11">
-        <v>462205</v>
+        <v>255500</v>
       </c>
       <c r="H13" s="11">
-        <v>512205</v>
-      </c>
-      <c r="I13" s="11">
-        <v>462205</v>
-      </c>
-      <c r="J13" s="11">
-        <v>462205</v>
-      </c>
-      <c r="K13" s="11">
-        <v>382878</v>
-      </c>
-      <c r="L13" s="11">
-        <v>382878</v>
-      </c>
-      <c r="M13" s="11">
-        <v>382878</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>255500</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
-        <v>2338959</v>
+        <v>6346727</v>
       </c>
       <c r="E14" s="15">
-        <v>2008889</v>
+        <v>7137232</v>
       </c>
       <c r="F14" s="15">
-        <v>2333569</v>
+        <v>6843729</v>
       </c>
       <c r="G14" s="15">
-        <v>4305643</v>
+        <v>5649984</v>
       </c>
       <c r="H14" s="15">
-        <v>4348857</v>
-      </c>
-      <c r="I14" s="15">
-        <v>5953286</v>
-      </c>
-      <c r="J14" s="15">
-        <v>6346727</v>
-      </c>
-      <c r="K14" s="15">
-        <v>7137232</v>
-      </c>
-      <c r="L14" s="15">
-        <v>6843729</v>
-      </c>
-      <c r="M14" s="15">
-        <v>12521981</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>5163927</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
-        <v>1481679</v>
+        <v>3612703</v>
       </c>
       <c r="E15" s="11">
-        <v>1762347</v>
+        <v>3511100</v>
       </c>
       <c r="F15" s="11">
-        <v>2362312</v>
+        <v>3839782</v>
       </c>
       <c r="G15" s="11">
-        <v>3034904</v>
+        <v>5468063</v>
       </c>
       <c r="H15" s="11">
-        <v>3444419</v>
-      </c>
-      <c r="I15" s="11">
-        <v>3642768</v>
-      </c>
-      <c r="J15" s="11">
-        <v>3612703</v>
-      </c>
-      <c r="K15" s="11">
-        <v>3511100</v>
-      </c>
-      <c r="L15" s="11">
-        <v>3839782</v>
-      </c>
-      <c r="M15" s="11">
-        <v>5309206</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>4193561</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>752828</v>
+        <v>2429339</v>
       </c>
       <c r="E16" s="15">
-        <v>1023019</v>
+        <v>2390108</v>
       </c>
       <c r="F16" s="15">
-        <v>1254224</v>
+        <v>2590048</v>
       </c>
       <c r="G16" s="15">
-        <v>2240678</v>
+        <v>2115306</v>
       </c>
       <c r="H16" s="15">
-        <v>2816462</v>
-      </c>
-      <c r="I16" s="15">
-        <v>2474261</v>
-      </c>
-      <c r="J16" s="15">
-        <v>2429339</v>
-      </c>
-      <c r="K16" s="15">
-        <v>2390108</v>
-      </c>
-      <c r="L16" s="15">
-        <v>2590048</v>
-      </c>
-      <c r="M16" s="15">
-        <v>2223464</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2273488</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -1151,61 +969,31 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0</v>
-      </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
-        <v>6594655</v>
+        <v>13975759</v>
       </c>
       <c r="E18" s="17">
-        <v>5581546</v>
+        <v>14813823</v>
       </c>
       <c r="F18" s="17">
-        <v>7283692</v>
+        <v>14407828</v>
       </c>
       <c r="G18" s="17">
-        <v>10565310</v>
+        <v>14389724</v>
       </c>
       <c r="H18" s="17">
-        <v>11547472</v>
-      </c>
-      <c r="I18" s="17">
-        <v>12962594</v>
-      </c>
-      <c r="J18" s="17">
-        <v>13975759</v>
-      </c>
-      <c r="K18" s="17">
-        <v>14813823</v>
-      </c>
-      <c r="L18" s="17">
-        <v>14407828</v>
-      </c>
-      <c r="M18" s="17">
-        <v>21332962</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>12825750</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1218,66 +1006,36 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <v>0</v>
+        <v>6194045</v>
       </c>
       <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0</v>
-      </c>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7538498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>607991</v>
+        <v>759215</v>
       </c>
       <c r="E20" s="15">
-        <v>630261</v>
+        <v>851069</v>
       </c>
       <c r="F20" s="15">
-        <v>630637</v>
+        <v>851069</v>
       </c>
       <c r="G20" s="15">
-        <v>629771</v>
+        <v>1101180</v>
       </c>
       <c r="H20" s="15">
-        <v>631985</v>
-      </c>
-      <c r="I20" s="15">
-        <v>759146</v>
-      </c>
-      <c r="J20" s="15">
-        <v>759215</v>
-      </c>
-      <c r="K20" s="15">
-        <v>851069</v>
-      </c>
-      <c r="L20" s="15">
-        <v>851069</v>
-      </c>
-      <c r="M20" s="15">
-        <v>974069</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1138699</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1295,133 +1053,73 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-      <c r="I21" s="11">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>2923090</v>
+        <v>4309405</v>
       </c>
       <c r="E22" s="15">
-        <v>3155780</v>
+        <v>4578761</v>
       </c>
       <c r="F22" s="15">
-        <v>3596487</v>
+        <v>7321402</v>
       </c>
       <c r="G22" s="15">
-        <v>3733228</v>
+        <v>2724820</v>
       </c>
       <c r="H22" s="15">
-        <v>3788447</v>
-      </c>
-      <c r="I22" s="15">
-        <v>4133732</v>
-      </c>
-      <c r="J22" s="15">
-        <v>4309405</v>
-      </c>
-      <c r="K22" s="15">
-        <v>4578761</v>
-      </c>
-      <c r="L22" s="15">
-        <v>7321402</v>
-      </c>
-      <c r="M22" s="15">
-        <v>2727870</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>2762993</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
-        <v>88176</v>
+        <v>113436</v>
       </c>
       <c r="E23" s="11">
-        <v>111434</v>
+        <v>112520</v>
       </c>
       <c r="F23" s="11">
-        <v>111630</v>
+        <v>112520</v>
       </c>
       <c r="G23" s="11">
-        <v>111305</v>
+        <v>36804</v>
       </c>
       <c r="H23" s="11">
-        <v>111305</v>
-      </c>
-      <c r="I23" s="11">
-        <v>113045</v>
-      </c>
-      <c r="J23" s="11">
-        <v>113436</v>
-      </c>
-      <c r="K23" s="11">
-        <v>112520</v>
-      </c>
-      <c r="L23" s="11">
-        <v>112520</v>
-      </c>
-      <c r="M23" s="11">
-        <v>37553</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>36804</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1439,97 +1137,52 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-      <c r="I25" s="11">
-        <v>0</v>
-      </c>
-      <c r="J25" s="11">
-        <v>0</v>
-      </c>
-      <c r="K25" s="11">
-        <v>0</v>
-      </c>
-      <c r="L25" s="11">
-        <v>0</v>
-      </c>
-      <c r="M25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
-        <v>3619257</v>
+        <v>5182056</v>
       </c>
       <c r="E26" s="17">
-        <v>3897475</v>
+        <v>5542350</v>
       </c>
       <c r="F26" s="17">
-        <v>4338754</v>
+        <v>8284991</v>
       </c>
       <c r="G26" s="17">
-        <v>4474304</v>
+        <v>10056849</v>
       </c>
       <c r="H26" s="17">
-        <v>4531737</v>
-      </c>
-      <c r="I26" s="17">
-        <v>5005923</v>
-      </c>
-      <c r="J26" s="17">
-        <v>5182056</v>
-      </c>
-      <c r="K26" s="17">
-        <v>5542350</v>
-      </c>
-      <c r="L26" s="17">
-        <v>8284991</v>
-      </c>
-      <c r="M26" s="17">
-        <v>3739492</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>11476994</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
-        <v>10213912</v>
+        <v>19157815</v>
       </c>
       <c r="E27" s="19">
-        <v>9479021</v>
+        <v>20356173</v>
       </c>
       <c r="F27" s="19">
-        <v>11622446</v>
+        <v>22692819</v>
       </c>
       <c r="G27" s="19">
-        <v>15039614</v>
+        <v>24446573</v>
       </c>
       <c r="H27" s="19">
-        <v>16079209</v>
-      </c>
-      <c r="I27" s="19">
-        <v>17968517</v>
-      </c>
-      <c r="J27" s="19">
-        <v>19157815</v>
-      </c>
-      <c r="K27" s="19">
-        <v>20356173</v>
-      </c>
-      <c r="L27" s="19">
-        <v>22692819</v>
-      </c>
-      <c r="M27" s="19">
-        <v>25072454</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24302744</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1537,267 +1190,157 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
-        <v>2304620</v>
+        <v>2595113</v>
       </c>
       <c r="E29" s="15">
-        <v>1462767</v>
+        <v>5199541</v>
       </c>
       <c r="F29" s="15">
-        <v>1984570</v>
+        <v>5434846</v>
       </c>
       <c r="G29" s="15">
-        <v>2302660</v>
+        <v>6411498</v>
       </c>
       <c r="H29" s="15">
-        <v>1486214</v>
-      </c>
-      <c r="I29" s="15">
-        <v>1833513</v>
-      </c>
-      <c r="J29" s="15">
-        <v>2595113</v>
-      </c>
-      <c r="K29" s="15">
-        <v>5199541</v>
-      </c>
-      <c r="L29" s="15">
-        <v>5434846</v>
-      </c>
-      <c r="M29" s="15">
-        <v>7248324</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>6439524</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
-        <v>87247</v>
+        <v>337433</v>
       </c>
       <c r="E31" s="15">
-        <v>195138</v>
+        <v>485532</v>
       </c>
       <c r="F31" s="15">
-        <v>112980</v>
+        <v>598358</v>
       </c>
       <c r="G31" s="15">
-        <v>423584</v>
+        <v>407892</v>
       </c>
       <c r="H31" s="15">
-        <v>502070</v>
-      </c>
-      <c r="I31" s="15">
-        <v>458471</v>
-      </c>
-      <c r="J31" s="15">
-        <v>337433</v>
-      </c>
-      <c r="K31" s="15">
-        <v>485532</v>
-      </c>
-      <c r="L31" s="15">
-        <v>598358</v>
-      </c>
-      <c r="M31" s="15">
-        <v>267897</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+        <v>369158</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
-        <v>114462</v>
+        <v>489775</v>
       </c>
       <c r="E32" s="11">
-        <v>251460</v>
+        <v>489456</v>
       </c>
       <c r="F32" s="11">
-        <v>432024</v>
+        <v>284561</v>
       </c>
       <c r="G32" s="11">
-        <v>485880</v>
+        <v>169691</v>
       </c>
       <c r="H32" s="11">
-        <v>664865</v>
-      </c>
-      <c r="I32" s="11">
-        <v>684222</v>
-      </c>
-      <c r="J32" s="11">
-        <v>489775</v>
-      </c>
-      <c r="K32" s="11">
-        <v>489456</v>
-      </c>
-      <c r="L32" s="11">
-        <v>284561</v>
-      </c>
-      <c r="M32" s="11">
-        <v>169691</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>89771</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
-        <v>177527</v>
+        <v>3078314</v>
       </c>
       <c r="E33" s="15">
-        <v>602663</v>
+        <v>33454</v>
       </c>
       <c r="F33" s="15">
-        <v>596672</v>
+        <v>32102</v>
       </c>
       <c r="G33" s="15">
-        <v>16204</v>
+        <v>1350979</v>
       </c>
       <c r="H33" s="15">
-        <v>15126</v>
-      </c>
-      <c r="I33" s="15">
-        <v>3527057</v>
-      </c>
-      <c r="J33" s="15">
-        <v>3078314</v>
-      </c>
-      <c r="K33" s="15">
-        <v>33454</v>
-      </c>
-      <c r="L33" s="15">
-        <v>32102</v>
-      </c>
-      <c r="M33" s="15">
-        <v>1350979</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>1318661</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
-        <v>2100150</v>
+        <v>6865886</v>
       </c>
       <c r="E34" s="11">
-        <v>1425222</v>
+        <v>7349154</v>
       </c>
       <c r="F34" s="11">
-        <v>2389815</v>
+        <v>7558589</v>
       </c>
       <c r="G34" s="11">
-        <v>2770698</v>
+        <v>7073583</v>
       </c>
       <c r="H34" s="11">
-        <v>3832209</v>
-      </c>
-      <c r="I34" s="11">
-        <v>5750684</v>
-      </c>
-      <c r="J34" s="11">
-        <v>6865886</v>
-      </c>
-      <c r="K34" s="11">
-        <v>7349154</v>
-      </c>
-      <c r="L34" s="11">
-        <v>7558589</v>
-      </c>
-      <c r="M34" s="11">
-        <v>6958390</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>7542007</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
-        <v>21849</v>
+        <v>43408</v>
       </c>
       <c r="E35" s="15">
-        <v>18412</v>
+        <v>79706</v>
       </c>
       <c r="F35" s="15">
-        <v>18412</v>
+        <v>79706</v>
       </c>
       <c r="G35" s="15">
-        <v>62391</v>
+        <v>73972</v>
       </c>
       <c r="H35" s="15">
-        <v>49329</v>
-      </c>
-      <c r="I35" s="15">
-        <v>43408</v>
-      </c>
-      <c r="J35" s="15">
-        <v>43408</v>
-      </c>
-      <c r="K35" s="15">
-        <v>79706</v>
-      </c>
-      <c r="L35" s="15">
-        <v>79706</v>
-      </c>
-      <c r="M35" s="15">
-        <v>75562</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+        <v>73972</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1815,61 +1358,31 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-      <c r="I36" s="11">
-        <v>0</v>
-      </c>
-      <c r="J36" s="11">
-        <v>0</v>
-      </c>
-      <c r="K36" s="11">
-        <v>0</v>
-      </c>
-      <c r="L36" s="11">
-        <v>0</v>
-      </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
-        <v>4805855</v>
+        <v>13409929</v>
       </c>
       <c r="E37" s="17">
-        <v>3955662</v>
+        <v>13636843</v>
       </c>
       <c r="F37" s="17">
-        <v>5534473</v>
+        <v>13988162</v>
       </c>
       <c r="G37" s="17">
-        <v>6061417</v>
+        <v>15487615</v>
       </c>
       <c r="H37" s="17">
-        <v>6549813</v>
-      </c>
-      <c r="I37" s="17">
-        <v>12297355</v>
-      </c>
-      <c r="J37" s="17">
-        <v>13409929</v>
-      </c>
-      <c r="K37" s="17">
-        <v>13636843</v>
-      </c>
-      <c r="L37" s="17">
-        <v>13988162</v>
-      </c>
-      <c r="M37" s="17">
-        <v>16070843</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15833093</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1887,205 +1400,115 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-      <c r="I38" s="11">
-        <v>0</v>
-      </c>
-      <c r="J38" s="11">
-        <v>0</v>
-      </c>
-      <c r="K38" s="11">
-        <v>0</v>
-      </c>
-      <c r="L38" s="11">
-        <v>0</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="K39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>604000</v>
+        <v>291967</v>
       </c>
       <c r="E40" s="11">
-        <v>631935</v>
+        <v>153156</v>
       </c>
       <c r="F40" s="11">
-        <v>512091</v>
+        <v>115000</v>
       </c>
       <c r="G40" s="11">
-        <v>528280</v>
+        <v>90845</v>
       </c>
       <c r="H40" s="11">
-        <v>528280</v>
-      </c>
-      <c r="I40" s="11">
-        <v>350967</v>
-      </c>
-      <c r="J40" s="11">
-        <v>291967</v>
-      </c>
-      <c r="K40" s="11">
-        <v>153156</v>
-      </c>
-      <c r="L40" s="11">
-        <v>115000</v>
-      </c>
-      <c r="M40" s="11">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>90845</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>120849</v>
+        <v>139095</v>
       </c>
       <c r="E41" s="15">
-        <v>118881</v>
+        <v>138349</v>
       </c>
       <c r="F41" s="15">
-        <v>116277</v>
+        <v>105465</v>
       </c>
       <c r="G41" s="15">
-        <v>102045</v>
+        <v>218319</v>
       </c>
       <c r="H41" s="15">
-        <v>105465</v>
-      </c>
-      <c r="I41" s="15">
-        <v>138729</v>
-      </c>
-      <c r="J41" s="15">
-        <v>139095</v>
-      </c>
-      <c r="K41" s="15">
-        <v>138349</v>
-      </c>
-      <c r="L41" s="15">
-        <v>105465</v>
-      </c>
-      <c r="M41" s="15">
-        <v>218319</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>180732</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
-        <v>724849</v>
+        <v>431062</v>
       </c>
       <c r="E42" s="19">
-        <v>750816</v>
+        <v>291505</v>
       </c>
       <c r="F42" s="19">
-        <v>628368</v>
+        <v>220465</v>
       </c>
       <c r="G42" s="19">
-        <v>630325</v>
+        <v>309164</v>
       </c>
       <c r="H42" s="19">
-        <v>633745</v>
-      </c>
-      <c r="I42" s="19">
-        <v>489696</v>
-      </c>
-      <c r="J42" s="19">
-        <v>431062</v>
-      </c>
-      <c r="K42" s="19">
-        <v>291505</v>
-      </c>
-      <c r="L42" s="19">
-        <v>220465</v>
-      </c>
-      <c r="M42" s="19">
-        <v>318319</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>271577</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
-        <v>5530704</v>
+        <v>13840991</v>
       </c>
       <c r="E43" s="17">
-        <v>4706478</v>
+        <v>13928348</v>
       </c>
       <c r="F43" s="17">
-        <v>6162841</v>
+        <v>14208627</v>
       </c>
       <c r="G43" s="17">
-        <v>6691742</v>
+        <v>15796779</v>
       </c>
       <c r="H43" s="17">
-        <v>7183558</v>
-      </c>
-      <c r="I43" s="17">
-        <v>12787051</v>
-      </c>
-      <c r="J43" s="17">
-        <v>13840991</v>
-      </c>
-      <c r="K43" s="17">
-        <v>13928348</v>
-      </c>
-      <c r="L43" s="17">
-        <v>14208627</v>
-      </c>
-      <c r="M43" s="17">
-        <v>16389162</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>16104670</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -2093,51 +1516,31 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
-        <v>1202000</v>
+        <v>2202000</v>
       </c>
       <c r="E45" s="15">
-        <v>1202000</v>
+        <v>2202000</v>
       </c>
       <c r="F45" s="15">
-        <v>1202000</v>
+        <v>2202000</v>
       </c>
       <c r="G45" s="15">
-        <v>1202000</v>
+        <v>4710647</v>
       </c>
       <c r="H45" s="15">
-        <v>2202000</v>
-      </c>
-      <c r="I45" s="15">
-        <v>2202000</v>
-      </c>
-      <c r="J45" s="15">
-        <v>2202000</v>
-      </c>
-      <c r="K45" s="15">
-        <v>2202000</v>
-      </c>
-      <c r="L45" s="15">
-        <v>2202000</v>
-      </c>
-      <c r="M45" s="15">
         <v>4710647</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -2155,25 +1558,10 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-      <c r="J46" s="11">
-        <v>0</v>
-      </c>
-      <c r="K46" s="11">
-        <v>0</v>
-      </c>
-      <c r="L46" s="11">
-        <v>0</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -2191,25 +1579,10 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-      <c r="I47" s="15">
-        <v>0</v>
-      </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
-        <v>0</v>
-      </c>
-      <c r="L47" s="15">
-        <v>0</v>
-      </c>
-      <c r="M47" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -2227,25 +1600,10 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-      <c r="J48" s="11">
-        <v>0</v>
-      </c>
-      <c r="K48" s="11">
-        <v>0</v>
-      </c>
-      <c r="L48" s="11">
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -2263,61 +1621,31 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-      <c r="I49" s="15">
-        <v>0</v>
-      </c>
-      <c r="J49" s="15">
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
-        <v>0</v>
-      </c>
-      <c r="L49" s="15">
-        <v>0</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>119591</v>
+        <v>120200</v>
       </c>
       <c r="E50" s="11">
-        <v>119591</v>
+        <v>220176</v>
       </c>
       <c r="F50" s="11">
-        <v>119591</v>
+        <v>220176</v>
       </c>
       <c r="G50" s="11">
-        <v>120200</v>
+        <v>220176</v>
       </c>
       <c r="H50" s="11">
-        <v>120200</v>
-      </c>
-      <c r="I50" s="11">
-        <v>120200</v>
-      </c>
-      <c r="J50" s="11">
-        <v>120200</v>
-      </c>
-      <c r="K50" s="11">
         <v>220176</v>
       </c>
-      <c r="L50" s="11">
-        <v>220176</v>
-      </c>
-      <c r="M50" s="11">
-        <v>220176</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -2335,61 +1663,31 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-      <c r="I51" s="15">
-        <v>0</v>
-      </c>
-      <c r="J51" s="15">
-        <v>0</v>
-      </c>
-      <c r="K51" s="15">
-        <v>0</v>
-      </c>
-      <c r="L51" s="15">
-        <v>0</v>
-      </c>
-      <c r="M51" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L52" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -2399,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="15">
-        <v>0</v>
+        <v>2508647</v>
       </c>
       <c r="G53" s="15">
         <v>0</v>
@@ -2407,61 +1705,31 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-      <c r="I53" s="15">
-        <v>0</v>
-      </c>
-      <c r="J53" s="15">
-        <v>0</v>
-      </c>
-      <c r="K53" s="15">
-        <v>0</v>
-      </c>
-      <c r="L53" s="15">
-        <v>2508647</v>
-      </c>
-      <c r="M53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -2479,131 +1747,71 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-      <c r="I55" s="15">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
-        <v>0</v>
-      </c>
-      <c r="K55" s="15">
-        <v>0</v>
-      </c>
-      <c r="L55" s="15">
-        <v>0</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
-        <v>3361617</v>
+        <v>2994624</v>
       </c>
       <c r="E56" s="11">
-        <v>3450952</v>
+        <v>4005649</v>
       </c>
       <c r="F56" s="11">
-        <v>4138014</v>
+        <v>3553369</v>
       </c>
       <c r="G56" s="11">
-        <v>7025672</v>
+        <v>3718971</v>
       </c>
       <c r="H56" s="11">
-        <v>6573451</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2859266</v>
-      </c>
-      <c r="J56" s="11">
-        <v>2994624</v>
-      </c>
-      <c r="K56" s="11">
-        <v>4005649</v>
-      </c>
-      <c r="L56" s="11">
-        <v>3553369</v>
-      </c>
-      <c r="M56" s="11">
-        <v>3752469</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>3267251</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>4683208</v>
+        <v>5316824</v>
       </c>
       <c r="E57" s="17">
-        <v>4772543</v>
+        <v>6427825</v>
       </c>
       <c r="F57" s="17">
-        <v>5459605</v>
+        <v>8484192</v>
       </c>
       <c r="G57" s="17">
-        <v>8347872</v>
+        <v>8649794</v>
       </c>
       <c r="H57" s="17">
-        <v>8895651</v>
-      </c>
-      <c r="I57" s="17">
-        <v>5181466</v>
-      </c>
-      <c r="J57" s="17">
-        <v>5316824</v>
-      </c>
-      <c r="K57" s="17">
-        <v>6427825</v>
-      </c>
-      <c r="L57" s="17">
-        <v>8484192</v>
-      </c>
-      <c r="M57" s="17">
-        <v>8683292</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>8198074</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
-        <v>10213912</v>
+        <v>19157815</v>
       </c>
       <c r="E58" s="19">
-        <v>9479021</v>
+        <v>20356173</v>
       </c>
       <c r="F58" s="19">
-        <v>11622446</v>
+        <v>22692819</v>
       </c>
       <c r="G58" s="19">
-        <v>15039614</v>
+        <v>24446573</v>
       </c>
       <c r="H58" s="19">
-        <v>16079209</v>
-      </c>
-      <c r="I58" s="19">
-        <v>17968517</v>
-      </c>
-      <c r="J58" s="19">
-        <v>19157815</v>
-      </c>
-      <c r="K58" s="19">
-        <v>20356173</v>
-      </c>
-      <c r="L58" s="19">
-        <v>22692819</v>
-      </c>
-      <c r="M58" s="19">
-        <v>25072454</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>24302744</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2611,11 +1819,6 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/parta/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/parta/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\parta\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46205E7-4394-4943-B69C-B24FD908F786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC37594-28FB-4003-937F-66A0261AB58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +70,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1399-09-29 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-30</t>
+  </si>
+  <si>
+    <t>1401-04-18 (13)</t>
+  </si>
+  <si>
+    <t>1400-04-29</t>
+  </si>
+  <si>
+    <t>1400-10-01 (3)</t>
+  </si>
+  <si>
     <t>1401-03-09 (3)</t>
   </si>
   <si>
-    <t>1401-10-30 (6)</t>
+    <t>1401-11-09 (7)</t>
   </si>
   <si>
     <t>1401-04-31</t>
@@ -67,7 +97,7 @@
     <t>1401-09-15 (2)</t>
   </si>
   <si>
-    <t>1401-10-30</t>
+    <t>1401-11-09 (2)</t>
   </si>
   <si>
     <t>دارایی</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,115 +945,195 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>225791</v>
+      </c>
+      <c r="E12" s="15">
+        <v>638587</v>
+      </c>
+      <c r="F12" s="15">
+        <v>521880</v>
+      </c>
+      <c r="G12" s="15">
+        <v>425529</v>
+      </c>
+      <c r="H12" s="15">
+        <v>430074</v>
+      </c>
+      <c r="I12" s="15">
         <v>1124785</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>1392505</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>751391</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>900871</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>939274</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>561500</v>
+      </c>
+      <c r="E13" s="11">
+        <v>695000</v>
+      </c>
+      <c r="F13" s="11">
         <v>462205</v>
       </c>
-      <c r="E13" s="11">
+      <c r="G13" s="11">
+        <v>512205</v>
+      </c>
+      <c r="H13" s="11">
+        <v>462205</v>
+      </c>
+      <c r="I13" s="11">
+        <v>462205</v>
+      </c>
+      <c r="J13" s="11">
         <v>382878</v>
       </c>
-      <c r="F13" s="11">
+      <c r="K13" s="11">
         <v>382878</v>
       </c>
-      <c r="G13" s="11">
+      <c r="L13" s="11">
         <v>255500</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>255500</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>2008889</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2333569</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4305643</v>
+      </c>
+      <c r="G14" s="15">
+        <v>4348857</v>
+      </c>
+      <c r="H14" s="15">
+        <v>5953286</v>
+      </c>
+      <c r="I14" s="15">
         <v>6346727</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>7137232</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>6843729</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>5649984</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>5163927</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1762347</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2362312</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3034904</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3444419</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3642768</v>
+      </c>
+      <c r="I15" s="11">
         <v>3612703</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>3511100</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>3839782</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>5468063</v>
       </c>
-      <c r="H15" s="11">
-        <v>4193561</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M15" s="11">
+        <v>3814497</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>1023019</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1254224</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2240678</v>
+      </c>
+      <c r="G16" s="15">
+        <v>2816462</v>
+      </c>
+      <c r="H16" s="15">
+        <v>2474261</v>
+      </c>
+      <c r="I16" s="15">
         <v>2429339</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>2390108</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>2590048</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>2115306</v>
       </c>
-      <c r="H16" s="15">
-        <v>2273488</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M16" s="15">
+        <v>2869539</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,31 +1151,61 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>5581546</v>
+      </c>
+      <c r="E18" s="17">
+        <v>7283692</v>
+      </c>
+      <c r="F18" s="17">
+        <v>10565310</v>
+      </c>
+      <c r="G18" s="17">
+        <v>11547472</v>
+      </c>
+      <c r="H18" s="17">
+        <v>12962594</v>
+      </c>
+      <c r="I18" s="17">
         <v>13975759</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>14813823</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>14407828</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>14389724</v>
       </c>
-      <c r="H18" s="17">
-        <v>12825750</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M18" s="17">
+        <v>13042737</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
@@ -1006,36 +1218,66 @@
         <v>0</v>
       </c>
       <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
         <v>6194045</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>7538498</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>630261</v>
+      </c>
+      <c r="E20" s="15">
+        <v>630637</v>
+      </c>
+      <c r="F20" s="15">
+        <v>629771</v>
+      </c>
+      <c r="G20" s="15">
+        <v>631985</v>
+      </c>
+      <c r="H20" s="15">
+        <v>759146</v>
+      </c>
+      <c r="I20" s="15">
         <v>759215</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>851069</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>851069</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>1101180</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>1138699</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,73 +1295,133 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>3155780</v>
+      </c>
+      <c r="E22" s="15">
+        <v>3596487</v>
+      </c>
+      <c r="F22" s="15">
+        <v>3733228</v>
+      </c>
+      <c r="G22" s="15">
+        <v>3788447</v>
+      </c>
+      <c r="H22" s="15">
+        <v>4133732</v>
+      </c>
+      <c r="I22" s="15">
         <v>4309405</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>4578761</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>7321402</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>2724820</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>2762993</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>111434</v>
+      </c>
+      <c r="E23" s="11">
+        <v>111630</v>
+      </c>
+      <c r="F23" s="11">
+        <v>111305</v>
+      </c>
+      <c r="G23" s="11">
+        <v>111305</v>
+      </c>
+      <c r="H23" s="11">
+        <v>113045</v>
+      </c>
+      <c r="I23" s="11">
         <v>113436</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>112520</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>112520</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>36804</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>36804</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>3897475</v>
+      </c>
+      <c r="E26" s="17">
+        <v>4338754</v>
+      </c>
+      <c r="F26" s="17">
+        <v>4474304</v>
+      </c>
+      <c r="G26" s="17">
+        <v>4531737</v>
+      </c>
+      <c r="H26" s="17">
+        <v>5005923</v>
+      </c>
+      <c r="I26" s="17">
         <v>5182056</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>5542350</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>8284991</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>10056849</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>11476994</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>9479021</v>
+      </c>
+      <c r="E27" s="19">
+        <v>11622446</v>
+      </c>
+      <c r="F27" s="19">
+        <v>15039614</v>
+      </c>
+      <c r="G27" s="19">
+        <v>16079209</v>
+      </c>
+      <c r="H27" s="19">
+        <v>17968517</v>
+      </c>
+      <c r="I27" s="19">
         <v>19157815</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>20356173</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>22692819</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>24446573</v>
       </c>
-      <c r="H27" s="19">
-        <v>24302744</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M27" s="19">
+        <v>24519731</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,157 +1537,267 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>1462767</v>
+      </c>
+      <c r="E29" s="15">
+        <v>1984570</v>
+      </c>
+      <c r="F29" s="15">
+        <v>2302660</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1486214</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1833513</v>
+      </c>
+      <c r="I29" s="15">
         <v>2595113</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>5199541</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>5434846</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>6411498</v>
       </c>
-      <c r="H29" s="15">
-        <v>6439524</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M29" s="15">
+        <v>6431078</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
+        <v>195138</v>
+      </c>
+      <c r="E31" s="15">
+        <v>112980</v>
+      </c>
+      <c r="F31" s="15">
+        <v>423584</v>
+      </c>
+      <c r="G31" s="15">
+        <v>502070</v>
+      </c>
+      <c r="H31" s="15">
+        <v>458471</v>
+      </c>
+      <c r="I31" s="15">
         <v>337433</v>
       </c>
-      <c r="E31" s="15">
+      <c r="J31" s="15">
         <v>485532</v>
       </c>
-      <c r="F31" s="15">
+      <c r="K31" s="15">
         <v>598358</v>
       </c>
-      <c r="G31" s="15">
+      <c r="L31" s="15">
         <v>407892</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>369158</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>251460</v>
+      </c>
+      <c r="E32" s="11">
+        <v>432024</v>
+      </c>
+      <c r="F32" s="11">
+        <v>485880</v>
+      </c>
+      <c r="G32" s="11">
+        <v>664865</v>
+      </c>
+      <c r="H32" s="11">
+        <v>684222</v>
+      </c>
+      <c r="I32" s="11">
         <v>489775</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>489456</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>284561</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>169691</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>89771</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>602663</v>
+      </c>
+      <c r="E33" s="15">
+        <v>596672</v>
+      </c>
+      <c r="F33" s="15">
+        <v>16204</v>
+      </c>
+      <c r="G33" s="15">
+        <v>15126</v>
+      </c>
+      <c r="H33" s="15">
+        <v>3527057</v>
+      </c>
+      <c r="I33" s="15">
         <v>3078314</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>33454</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>32102</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>1350979</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>1318661</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>1425222</v>
+      </c>
+      <c r="E34" s="11">
+        <v>2389815</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2770698</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3832209</v>
+      </c>
+      <c r="H34" s="11">
+        <v>5750684</v>
+      </c>
+      <c r="I34" s="11">
         <v>6865886</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>7349154</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>7558589</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>7073583</v>
       </c>
-      <c r="H34" s="11">
-        <v>7542007</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M34" s="11">
+        <v>7472430</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>18412</v>
+      </c>
+      <c r="E35" s="15">
+        <v>18412</v>
+      </c>
+      <c r="F35" s="15">
+        <v>62391</v>
+      </c>
+      <c r="G35" s="15">
+        <v>49329</v>
+      </c>
+      <c r="H35" s="15">
         <v>43408</v>
       </c>
-      <c r="E35" s="15">
+      <c r="I35" s="15">
+        <v>43408</v>
+      </c>
+      <c r="J35" s="15">
         <v>79706</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>79706</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>73972</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>73972</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>3955662</v>
+      </c>
+      <c r="E37" s="17">
+        <v>5534473</v>
+      </c>
+      <c r="F37" s="17">
+        <v>6061417</v>
+      </c>
+      <c r="G37" s="17">
+        <v>6549813</v>
+      </c>
+      <c r="H37" s="17">
+        <v>12297355</v>
+      </c>
+      <c r="I37" s="17">
         <v>13409929</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>13636843</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>13988162</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>15487615</v>
       </c>
-      <c r="H37" s="17">
-        <v>15833093</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M37" s="17">
+        <v>15755070</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,115 +1887,205 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>631935</v>
+      </c>
+      <c r="E40" s="11">
+        <v>512091</v>
+      </c>
+      <c r="F40" s="11">
+        <v>528280</v>
+      </c>
+      <c r="G40" s="11">
+        <v>528280</v>
+      </c>
+      <c r="H40" s="11">
+        <v>350967</v>
+      </c>
+      <c r="I40" s="11">
         <v>291967</v>
       </c>
-      <c r="E40" s="11">
+      <c r="J40" s="11">
         <v>153156</v>
       </c>
-      <c r="F40" s="11">
+      <c r="K40" s="11">
         <v>115000</v>
       </c>
-      <c r="G40" s="11">
+      <c r="L40" s="11">
         <v>90845</v>
       </c>
-      <c r="H40" s="11">
+      <c r="M40" s="11">
         <v>90845</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>118881</v>
+      </c>
+      <c r="E41" s="15">
+        <v>116277</v>
+      </c>
+      <c r="F41" s="15">
+        <v>102045</v>
+      </c>
+      <c r="G41" s="15">
+        <v>105465</v>
+      </c>
+      <c r="H41" s="15">
+        <v>138729</v>
+      </c>
+      <c r="I41" s="15">
         <v>139095</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>138349</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>105465</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>218319</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>180732</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>750816</v>
+      </c>
+      <c r="E42" s="19">
+        <v>628368</v>
+      </c>
+      <c r="F42" s="19">
+        <v>630325</v>
+      </c>
+      <c r="G42" s="19">
+        <v>633745</v>
+      </c>
+      <c r="H42" s="19">
+        <v>489696</v>
+      </c>
+      <c r="I42" s="19">
         <v>431062</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>291505</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>220465</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>309164</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>271577</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>4706478</v>
+      </c>
+      <c r="E43" s="17">
+        <v>6162841</v>
+      </c>
+      <c r="F43" s="17">
+        <v>6691742</v>
+      </c>
+      <c r="G43" s="17">
+        <v>7183558</v>
+      </c>
+      <c r="H43" s="17">
+        <v>12787051</v>
+      </c>
+      <c r="I43" s="17">
         <v>13840991</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>13928348</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>14208627</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>15796779</v>
       </c>
-      <c r="H43" s="17">
-        <v>16104670</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M43" s="17">
+        <v>16026647</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
+        <v>1202000</v>
+      </c>
+      <c r="E45" s="15">
+        <v>1202000</v>
+      </c>
+      <c r="F45" s="15">
+        <v>1202000</v>
+      </c>
+      <c r="G45" s="15">
         <v>2202000</v>
       </c>
-      <c r="E45" s="15">
+      <c r="H45" s="15">
         <v>2202000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="I45" s="15">
         <v>2202000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="J45" s="15">
+        <v>2202000</v>
+      </c>
+      <c r="K45" s="15">
+        <v>2202000</v>
+      </c>
+      <c r="L45" s="15">
         <v>4710647</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>4710647</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,10 +2191,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2227,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>119591</v>
+      </c>
+      <c r="E50" s="11">
+        <v>119591</v>
+      </c>
+      <c r="F50" s="11">
         <v>120200</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>120200</v>
+      </c>
+      <c r="H50" s="11">
+        <v>120200</v>
+      </c>
+      <c r="I50" s="11">
+        <v>120200</v>
+      </c>
+      <c r="J50" s="11">
         <v>220176</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>220176</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>220176</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>220176</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="15">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="15">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1697,39 +2399,69 @@
         <v>0</v>
       </c>
       <c r="F53" s="15">
+        <v>0</v>
+      </c>
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="15">
+        <v>0</v>
+      </c>
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
         <v>2508647</v>
       </c>
-      <c r="G53" s="15">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>3450952</v>
+      </c>
+      <c r="E56" s="11">
+        <v>4138014</v>
+      </c>
+      <c r="F56" s="11">
+        <v>7025672</v>
+      </c>
+      <c r="G56" s="11">
+        <v>6573451</v>
+      </c>
+      <c r="H56" s="11">
+        <v>2859266</v>
+      </c>
+      <c r="I56" s="11">
         <v>2994624</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>4005649</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>3553369</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>3718971</v>
       </c>
-      <c r="H56" s="11">
-        <v>3267251</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M56" s="11">
+        <v>3562261</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>4772543</v>
+      </c>
+      <c r="E57" s="17">
+        <v>5459605</v>
+      </c>
+      <c r="F57" s="17">
+        <v>8347872</v>
+      </c>
+      <c r="G57" s="17">
+        <v>8895651</v>
+      </c>
+      <c r="H57" s="17">
+        <v>5181466</v>
+      </c>
+      <c r="I57" s="17">
         <v>5316824</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>6427825</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>8484192</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>8649794</v>
       </c>
-      <c r="H57" s="17">
-        <v>8198074</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M57" s="17">
+        <v>8493084</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>9479021</v>
+      </c>
+      <c r="E58" s="19">
+        <v>11622446</v>
+      </c>
+      <c r="F58" s="19">
+        <v>15039614</v>
+      </c>
+      <c r="G58" s="19">
+        <v>16079209</v>
+      </c>
+      <c r="H58" s="19">
+        <v>17968517</v>
+      </c>
+      <c r="I58" s="19">
         <v>19157815</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>20356173</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>22692819</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>24446573</v>
       </c>
-      <c r="H58" s="19">
-        <v>24302744</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M58" s="19">
+        <v>24519731</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/lastic/parta/balancesheet/quarterly.xlsx
+++ b/database/industries/lastic/parta/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC37594-28FB-4003-937F-66A0261AB58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BB6DF-E810-43A2-A240-A77EEF0EBD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -743,7 +743,7 @@
     <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -757,7 +757,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -789,7 +789,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -803,7 +803,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -849,7 +849,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -885,7 +885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,7 +921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -935,7 +935,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
@@ -987,7 +987,7 @@
         <v>939274</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>255500</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="14" t="s">
         <v>29</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>5163927</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>3814497</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>2869539</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="16" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>13042737</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>7538498</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>1138699</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>2762993</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>42</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>11476994</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="18" t="s">
         <v>43</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>24519731</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1543,7 +1543,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>45</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>6431078</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>46</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>369158</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>48</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>89771</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>1318661</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>50</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>7472430</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>51</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>73972</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>52</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>53</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>15755070</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>90845</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>180732</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="18" t="s">
         <v>58</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>271577</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="16" t="s">
         <v>59</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>16026647</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>60</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>4710647</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
@@ -2315,7 +2315,7 @@
         <v>220176</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>67</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>68</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>71</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>3562261</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>73</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>8493084</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>74</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>24519731</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
